--- a/nmadb/501231.xlsx
+++ b/nmadb/501231.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="19440" windowHeight="7995"/>
@@ -14,7 +14,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$142</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -55,15 +55,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
-  <si>
-    <t>StudyID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
   <si>
     <t>Treatment</t>
-  </si>
-  <si>
-    <t>meanchange</t>
   </si>
   <si>
     <t>sd</t>
@@ -139,12 +133,21 @@
   <si>
     <t>Risperidone/Paliperidone</t>
   </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,7 +244,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -315,7 +318,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -350,7 +352,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -526,14 +527,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
@@ -541,30 +542,30 @@
     <col min="8" max="8" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="4" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
       <c r="G1" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -581,7 +582,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -598,13 +599,13 @@
         <v>130</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -621,13 +622,13 @@
         <v>136</v>
       </c>
       <c r="H4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -644,13 +645,13 @@
         <v>132</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -667,13 +668,13 @@
         <v>174</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I6">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -690,13 +691,13 @@
         <v>162</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I7">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -713,13 +714,13 @@
         <v>123</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I8">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="1">
         <v>4</v>
       </c>
@@ -736,13 +737,13 @@
         <v>122</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I9">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="1">
         <v>5</v>
       </c>
@@ -759,13 +760,13 @@
         <v>185</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I10">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="1">
         <v>5</v>
       </c>
@@ -782,13 +783,13 @@
         <v>130</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I11">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" s="1">
         <v>6</v>
       </c>
@@ -805,13 +806,13 @@
         <v>81</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I12">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="1">
         <v>6</v>
       </c>
@@ -828,13 +829,13 @@
         <v>89</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I13">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="1">
         <v>7</v>
       </c>
@@ -851,13 +852,13 @@
         <v>104</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I14" s="7">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="1">
         <v>7</v>
       </c>
@@ -874,13 +875,13 @@
         <v>96</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I15">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" s="1">
         <v>8</v>
       </c>
@@ -897,13 +898,13 @@
         <v>77</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I16">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="1">
         <v>8</v>
       </c>
@@ -920,13 +921,13 @@
         <v>77</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I17">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="1">
         <v>9</v>
       </c>
@@ -943,7 +944,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" s="1">
         <v>9</v>
       </c>
@@ -960,7 +961,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" s="1">
         <v>10</v>
       </c>
@@ -977,7 +978,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="1">
         <v>10</v>
       </c>
@@ -994,7 +995,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" s="1">
         <v>11</v>
       </c>
@@ -1011,7 +1012,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" s="1">
         <v>11</v>
       </c>
@@ -1028,7 +1029,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24" s="1">
         <v>12</v>
       </c>
@@ -1045,7 +1046,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25" s="1">
         <v>12</v>
       </c>
@@ -1062,7 +1063,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="A26" s="1">
         <v>13</v>
       </c>
@@ -1079,7 +1080,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="A27" s="1">
         <v>13</v>
       </c>
@@ -1096,7 +1097,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="A28" s="1">
         <v>14</v>
       </c>
@@ -1113,7 +1114,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="A29" s="1">
         <v>14</v>
       </c>
@@ -1130,7 +1131,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="A30" s="1">
         <v>15</v>
       </c>
@@ -1147,7 +1148,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="A31" s="1">
         <v>15</v>
       </c>
@@ -1164,7 +1165,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9">
       <c r="A32" s="1">
         <v>16</v>
       </c>
@@ -1181,7 +1182,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5">
       <c r="A33" s="1">
         <v>16</v>
       </c>
@@ -1198,7 +1199,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5">
       <c r="A34" s="1">
         <v>17</v>
       </c>
@@ -1215,7 +1216,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5">
       <c r="A35" s="1">
         <v>17</v>
       </c>
@@ -1232,7 +1233,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5">
       <c r="A36" s="1">
         <v>18</v>
       </c>
@@ -1249,7 +1250,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5">
       <c r="A37" s="1">
         <v>18</v>
       </c>
@@ -1266,7 +1267,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5">
       <c r="A38" s="1">
         <v>19</v>
       </c>
@@ -1283,7 +1284,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5">
       <c r="A39" s="1">
         <v>19</v>
       </c>
@@ -1300,7 +1301,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5">
       <c r="A40" s="1">
         <v>20</v>
       </c>
@@ -1317,7 +1318,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5">
       <c r="A41" s="1">
         <v>20</v>
       </c>
@@ -1334,7 +1335,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5">
       <c r="A42" s="1">
         <v>21</v>
       </c>
@@ -1351,7 +1352,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5">
       <c r="A43" s="1">
         <v>21</v>
       </c>
@@ -1368,7 +1369,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5">
       <c r="A44" s="1">
         <v>22</v>
       </c>
@@ -1385,7 +1386,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5">
       <c r="A45" s="1">
         <v>22</v>
       </c>
@@ -1402,7 +1403,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5">
       <c r="A46" s="1">
         <v>23</v>
       </c>
@@ -1419,7 +1420,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5">
       <c r="A47" s="1">
         <v>23</v>
       </c>
@@ -1436,7 +1437,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5">
       <c r="A48" s="1">
         <v>24</v>
       </c>
@@ -1453,7 +1454,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5">
       <c r="A49" s="1">
         <v>24</v>
       </c>
@@ -1470,7 +1471,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5">
       <c r="A50" s="1">
         <v>25</v>
       </c>
@@ -1487,7 +1488,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5">
       <c r="A51" s="1">
         <v>25</v>
       </c>
@@ -1504,7 +1505,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5">
       <c r="A52" s="1">
         <v>26</v>
       </c>
@@ -1521,7 +1522,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5">
       <c r="A53" s="1">
         <v>26</v>
       </c>
@@ -1538,7 +1539,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5">
       <c r="A54" s="1">
         <v>27</v>
       </c>
@@ -1555,7 +1556,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5">
       <c r="A55" s="1">
         <v>27</v>
       </c>
@@ -1572,7 +1573,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5">
       <c r="A56" s="1">
         <v>28</v>
       </c>
@@ -1589,7 +1590,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5">
       <c r="A57" s="1">
         <v>28</v>
       </c>
@@ -1606,7 +1607,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5">
       <c r="A58" s="1">
         <v>29</v>
       </c>
@@ -1623,7 +1624,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5">
       <c r="A59" s="1">
         <v>29</v>
       </c>
@@ -1640,7 +1641,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5">
       <c r="A60" s="1">
         <v>30</v>
       </c>
@@ -1657,7 +1658,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5">
       <c r="A61" s="1">
         <v>30</v>
       </c>
@@ -1674,7 +1675,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5">
       <c r="A62" s="1">
         <v>31</v>
       </c>
@@ -1691,7 +1692,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5">
       <c r="A63" s="1">
         <v>31</v>
       </c>
@@ -1708,7 +1709,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5">
       <c r="A64" s="1">
         <v>32</v>
       </c>
@@ -1725,7 +1726,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5">
       <c r="A65" s="1">
         <v>32</v>
       </c>
@@ -1742,7 +1743,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5">
       <c r="A66" s="1">
         <v>33</v>
       </c>
@@ -1759,7 +1760,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5">
       <c r="A67" s="1">
         <v>33</v>
       </c>
@@ -1776,7 +1777,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5">
       <c r="A68" s="1">
         <v>34</v>
       </c>
@@ -1793,7 +1794,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5">
       <c r="A69" s="1">
         <v>34</v>
       </c>
@@ -1810,7 +1811,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5">
       <c r="A70" s="1">
         <v>35</v>
       </c>
@@ -1827,7 +1828,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5">
       <c r="A71" s="1">
         <v>35</v>
       </c>
@@ -1844,7 +1845,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5">
       <c r="A72" s="1">
         <v>36</v>
       </c>
@@ -1861,7 +1862,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5">
       <c r="A73" s="1">
         <v>36</v>
       </c>
@@ -1878,7 +1879,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5">
       <c r="A74" s="1">
         <v>37</v>
       </c>
@@ -1895,7 +1896,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5">
       <c r="A75" s="1">
         <v>37</v>
       </c>
@@ -1912,7 +1913,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5">
       <c r="A76" s="1">
         <v>38</v>
       </c>
@@ -1929,7 +1930,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5">
       <c r="A77" s="1">
         <v>38</v>
       </c>
@@ -1946,7 +1947,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5">
       <c r="A78" s="1">
         <v>39</v>
       </c>
@@ -1963,7 +1964,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5">
       <c r="A79" s="1">
         <v>39</v>
       </c>
@@ -1980,7 +1981,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5">
       <c r="A80" s="1">
         <v>40</v>
       </c>
@@ -1997,7 +1998,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5">
       <c r="A81" s="1">
         <v>40</v>
       </c>
@@ -2014,7 +2015,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5">
       <c r="A82" s="1">
         <v>41</v>
       </c>
@@ -2031,7 +2032,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5">
       <c r="A83" s="1">
         <v>41</v>
       </c>
@@ -2048,7 +2049,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5">
       <c r="A84" s="1">
         <v>42</v>
       </c>
@@ -2065,7 +2066,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5">
       <c r="A85" s="1">
         <v>42</v>
       </c>
@@ -2082,7 +2083,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5">
       <c r="A86" s="1">
         <v>43</v>
       </c>
@@ -2099,7 +2100,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5">
       <c r="A87" s="1">
         <v>43</v>
       </c>
@@ -2116,7 +2117,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5">
       <c r="A88" s="1">
         <v>44</v>
       </c>
@@ -2133,7 +2134,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5">
       <c r="A89" s="1">
         <v>44</v>
       </c>
@@ -2150,7 +2151,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5">
       <c r="A90" s="1">
         <v>45</v>
       </c>
@@ -2167,7 +2168,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5">
       <c r="A91" s="1">
         <v>45</v>
       </c>
@@ -2184,7 +2185,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5">
       <c r="A92" s="1">
         <v>46</v>
       </c>
@@ -2201,7 +2202,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5">
       <c r="A93" s="1">
         <v>46</v>
       </c>
@@ -2218,7 +2219,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5">
       <c r="A94" s="1">
         <v>46</v>
       </c>
@@ -2235,7 +2236,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5">
       <c r="A95" s="1">
         <v>47</v>
       </c>
@@ -2252,7 +2253,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5">
       <c r="A96" s="1">
         <v>47</v>
       </c>
@@ -2269,7 +2270,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5">
       <c r="A97" s="1">
         <v>47</v>
       </c>
@@ -2286,7 +2287,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5">
       <c r="A98" s="1">
         <v>48</v>
       </c>
@@ -2303,7 +2304,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5">
       <c r="A99" s="1">
         <v>48</v>
       </c>
@@ -2320,7 +2321,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5">
       <c r="A100" s="1">
         <v>48</v>
       </c>
@@ -2337,7 +2338,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5">
       <c r="A101" s="1">
         <v>49</v>
       </c>
@@ -2354,7 +2355,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5">
       <c r="A102" s="1">
         <v>49</v>
       </c>
@@ -2371,7 +2372,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5">
       <c r="A103" s="1">
         <v>49</v>
       </c>
@@ -2388,7 +2389,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5">
       <c r="A104" s="1">
         <v>50</v>
       </c>
@@ -2405,7 +2406,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5">
       <c r="A105" s="1">
         <v>50</v>
       </c>
@@ -2422,7 +2423,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5">
       <c r="A106" s="1">
         <v>50</v>
       </c>
@@ -2439,7 +2440,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5">
       <c r="A107" s="1">
         <v>51</v>
       </c>
@@ -2456,7 +2457,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5">
       <c r="A108" s="1">
         <v>51</v>
       </c>
@@ -2473,7 +2474,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5">
       <c r="A109" s="1">
         <v>51</v>
       </c>
@@ -2490,7 +2491,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5">
       <c r="A110" s="1">
         <v>52</v>
       </c>
@@ -2507,7 +2508,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5">
       <c r="A111" s="1">
         <v>52</v>
       </c>
@@ -2524,7 +2525,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5">
       <c r="A112" s="1">
         <v>52</v>
       </c>
@@ -2541,7 +2542,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5">
       <c r="A113" s="1">
         <v>53</v>
       </c>
@@ -2558,7 +2559,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5">
       <c r="A114" s="1">
         <v>53</v>
       </c>
@@ -2575,7 +2576,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5">
       <c r="A115" s="1">
         <v>53</v>
       </c>
@@ -2592,7 +2593,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5">
       <c r="A116" s="1">
         <v>54</v>
       </c>
@@ -2609,7 +2610,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5">
       <c r="A117" s="1">
         <v>54</v>
       </c>
@@ -2626,7 +2627,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5">
       <c r="A118" s="1">
         <v>54</v>
       </c>
@@ -2643,7 +2644,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5">
       <c r="A119" s="1">
         <v>55</v>
       </c>
@@ -2660,7 +2661,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5">
       <c r="A120" s="1">
         <v>55</v>
       </c>
@@ -2677,7 +2678,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5">
       <c r="A121" s="1">
         <v>55</v>
       </c>
@@ -2694,7 +2695,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5">
       <c r="A122" s="1">
         <v>56</v>
       </c>
@@ -2711,7 +2712,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5">
       <c r="A123" s="1">
         <v>56</v>
       </c>
@@ -2728,7 +2729,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5">
       <c r="A124" s="1">
         <v>56</v>
       </c>
@@ -2745,7 +2746,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5">
       <c r="A125" s="1">
         <v>57</v>
       </c>
@@ -2762,7 +2763,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5">
       <c r="A126" s="1">
         <v>57</v>
       </c>
@@ -2779,7 +2780,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5">
       <c r="A127" s="1">
         <v>57</v>
       </c>
@@ -2796,7 +2797,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5">
       <c r="A128" s="1">
         <v>58</v>
       </c>
@@ -2813,7 +2814,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5">
       <c r="A129" s="1">
         <v>58</v>
       </c>
@@ -2830,7 +2831,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5">
       <c r="A130" s="1">
         <v>58</v>
       </c>
@@ -2847,7 +2848,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5">
       <c r="A131" s="1">
         <v>59</v>
       </c>
@@ -2864,7 +2865,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5">
       <c r="A132" s="1">
         <v>59</v>
       </c>
@@ -2881,7 +2882,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5">
       <c r="A133" s="1">
         <v>59</v>
       </c>
@@ -2898,7 +2899,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5">
       <c r="A134" s="1">
         <v>60</v>
       </c>
@@ -2915,7 +2916,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5">
       <c r="A135" s="1">
         <v>60</v>
       </c>
@@ -2932,7 +2933,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5">
       <c r="A136" s="1">
         <v>60</v>
       </c>
@@ -2949,7 +2950,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5">
       <c r="A137" s="1">
         <v>61</v>
       </c>
@@ -2966,7 +2967,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5">
       <c r="A138" s="1">
         <v>61</v>
       </c>
@@ -2983,7 +2984,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5">
       <c r="A139" s="1">
         <v>61</v>
       </c>
@@ -3000,7 +3001,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5">
       <c r="A140" s="1">
         <v>62</v>
       </c>
@@ -3017,7 +3018,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5">
       <c r="A141" s="1">
         <v>62</v>
       </c>
@@ -3034,7 +3035,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5">
       <c r="A142" s="1">
         <v>62</v>
       </c>
@@ -3058,96 +3059,96 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+    <row r="16" spans="1:1">
+      <c r="A16" s="1" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -3159,12 +3160,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
